--- a/Software/Список команд к серверу.xlsx
+++ b/Software/Список команд к серверу.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Формат команды</t>
   </si>
@@ -43,13 +43,46 @@
   </si>
   <si>
     <t>Описание</t>
+  </si>
+  <si>
+    <t>Отключение клиента от сервера</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AddUser/Логин/Пароль/Роль </t>
+  </si>
+  <si>
+    <t>Добавляет пользователя с заданным логином, паролем и ролью</t>
+  </si>
+  <si>
+    <t>AddDev/Номер порта/Номер устройства/Имя/Тип/Сообщение/Имя утройства, к которому привязано это устройство</t>
+  </si>
+  <si>
+    <t>Добавляет устройство с заданым номером порта, номером устройства, именем  и другими параметрами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeleteUser/Логин </t>
+  </si>
+  <si>
+    <t>Удаляет пользователя с заданным логином</t>
+  </si>
+  <si>
+    <t>Удаляет устройство с заданным именем</t>
+  </si>
+  <si>
+    <t>DeleteDevice/Имя устройство</t>
+  </si>
+  <si>
+    <t>UpdatePassworld/Логин/НовыйПароль /СтарыйПароль</t>
+  </si>
+  <si>
+    <t>Обновляет пароль у пользователя с заданным логином</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +98,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -74,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,22 +137,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -124,8 +153,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,16 +454,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="60.28515625" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -467,9 +500,264 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="41.25" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="64.5" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="39.75" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Software/Список команд к серверу.xlsx
+++ b/Software/Список команд к серверу.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Формат команды</t>
   </si>
@@ -27,12 +27,6 @@
     <t xml:space="preserve"> Установить параметр для устройства</t>
   </si>
   <si>
-    <t xml:space="preserve">GetUpdate  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Запрос на обновление списка устройств </t>
-  </si>
-  <si>
     <t>GetCounterRec/BeginDate/EndDate/ИмяУстройства</t>
   </si>
   <si>
@@ -76,13 +70,37 @@
   </si>
   <si>
     <t>Обновляет пароль у пользователя с заданным логином</t>
+  </si>
+  <si>
+    <t>GetUpdate/ТипОборудования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запрос на обновление списка устройств определённого типа </t>
+  </si>
+  <si>
+    <t>GetOnLineClients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запрос списка всех клиентов </t>
+  </si>
+  <si>
+    <t>Chat/Сообщение</t>
+  </si>
+  <si>
+    <t>Сообщение для чата.</t>
+  </si>
+  <si>
+    <t>AUALIVE</t>
+  </si>
+  <si>
+    <t>Команда опроса состояния</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,11 +117,12 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,7 +162,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -153,12 +171,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -166,6 +189,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -244,6 +272,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -278,6 +307,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -453,311 +483,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="60.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="41.25" customHeight="1">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="64.5" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
+    </row>
+    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -766,12 +808,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -779,12 +821,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
